--- a/data/trans_orig/Q23_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A8C99E6-64A4-485D-AD35-A46006DC78D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{477DBD99-DF2B-47B1-B046-3367E928A56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E8AB7CE-4A10-48EA-8679-BB97E590AD43}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{349254C7-00D7-4E8A-A36A-D433688D2133}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="323">
   <si>
     <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>37,48%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
   </si>
   <si>
     <t>28,1%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>33,97%</t>
   </si>
   <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>62,52%</t>
   </si>
   <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
   </si>
   <si>
     <t>71,9%</t>
   </si>
   <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
   </si>
   <si>
     <t>66,03%</t>
   </si>
   <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,169 +138,169 @@
     <t>43,12%</t>
   </si>
   <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
     <t>36,97%</t>
   </si>
   <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
   </si>
   <si>
     <t>63,03%</t>
   </si>
   <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
+    <t>75,33%</t>
   </si>
   <si>
     <t>78,43%</t>
   </si>
   <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -309,55 +309,55 @@
     <t>21,67%</t>
   </si>
   <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
   </si>
   <si>
     <t>24,31%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>72,11%</t>
   </si>
   <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
   </si>
   <si>
     <t>75,69%</t>
   </si>
   <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -366,55 +366,55 @@
     <t>39,93%</t>
   </si>
   <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>31,53%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
   </si>
   <si>
     <t>60,07%</t>
   </si>
   <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>62,87%</t>
   </si>
   <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -423,49 +423,55 @@
     <t>35,86%</t>
   </si>
   <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
   </si>
   <si>
     <t>27,86%</t>
   </si>
   <si>
-    <t>35,19%</t>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
   </si>
   <si>
     <t>64,14%</t>
   </si>
   <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
   </si>
   <si>
     <t>72,14%</t>
   </si>
   <si>
-    <t>64,81%</t>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
   </si>
   <si>
     <t>67,18%</t>
   </si>
   <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -474,109 +480,109 @@
     <t>32,39%</t>
   </si>
   <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
   </si>
   <si>
     <t>26,1%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>67,61%</t>
   </si>
   <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>73,9%</t>
   </si>
   <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>69,86%</t>
   </si>
   <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>35,85%</t>
   </si>
   <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
   </si>
   <si>
     <t>64,15%</t>
   </si>
   <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
   </si>
   <si>
     <t>72,97%</t>
   </si>
   <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
   </si>
   <si>
     <t>67,37%</t>
   </si>
   <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -591,409 +597,415 @@
     <t>42,45%</t>
   </si>
   <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
   </si>
   <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
   </si>
   <si>
     <t>38,76%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
+    <t>43,05%</t>
   </si>
   <si>
     <t>57,55%</t>
   </si>
   <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
   </si>
   <si>
     <t>67,01%</t>
   </si>
   <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>61,24%</t>
   </si>
   <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>56,95%</t>
   </si>
   <si>
     <t>34,55%</t>
   </si>
   <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
   </si>
   <si>
     <t>26,26%</t>
   </si>
   <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
   </si>
   <si>
     <t>65,45%</t>
   </si>
   <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>73,74%</t>
   </si>
   <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
   </si>
   <si>
     <t>38,28%</t>
   </si>
   <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
   </si>
   <si>
     <t>33,35%</t>
   </si>
   <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>70,5%</t>
   </si>
   <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>65,36%</t>
   </si>
   <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
   </si>
   <si>
     <t>36,04%</t>
   </si>
   <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>28,11%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
   </si>
   <si>
     <t>63,96%</t>
   </si>
   <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
   </si>
   <si>
     <t>71,89%</t>
   </si>
   <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
   </si>
   <si>
     <t>67,04%</t>
   </si>
   <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
   </si>
   <si>
     <t>29,44%</t>
   </si>
   <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>70,56%</t>
   </si>
   <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
   </si>
   <si>
     <t>71,85%</t>
   </si>
   <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
   </si>
   <si>
     <t>36,49%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
   <si>
     <t>63,51%</t>
   </si>
   <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
   </si>
   <si>
     <t>71,76%</t>
   </si>
   <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E16B7D-2B5C-427A-B3E3-E0B294404B47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C99A717-73FF-45BB-BEB0-09326FB7631F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2477,10 +2489,10 @@
         <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>162</v>
@@ -2489,13 +2501,13 @@
         <v>161160</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2522,13 @@
         <v>195381</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>130</v>
@@ -2525,13 +2537,13 @@
         <v>134451</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>320</v>
@@ -2540,13 +2552,13 @@
         <v>329832</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,7 +2614,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2614,13 +2626,13 @@
         <v>133050</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>58</v>
@@ -2629,13 +2641,13 @@
         <v>59515</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>190</v>
@@ -2644,13 +2656,13 @@
         <v>192565</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2677,13 @@
         <v>277771</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>160</v>
@@ -2680,13 +2692,13 @@
         <v>168494</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>431</v>
@@ -2695,13 +2707,13 @@
         <v>446266</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2781,13 @@
         <v>641679</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>276</v>
@@ -2784,13 +2796,13 @@
         <v>278236</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>908</v>
@@ -2799,13 +2811,13 @@
         <v>919915</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2832,13 @@
         <v>1147973</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>726</v>
@@ -2835,13 +2847,13 @@
         <v>751083</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>1848</v>
@@ -2850,13 +2862,13 @@
         <v>1899056</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,7 +2924,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +2948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779DFE3C-2376-4E81-89F2-798E8BB05E26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C556A6-50D6-4BBB-A36B-68D65F1C419F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2953,7 +2965,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3058,39 +3070,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,39 +3115,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,39 +3160,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3209,13 @@
         <v>140136</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -3212,13 +3224,13 @@
         <v>69596</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>196</v>
@@ -3227,13 +3239,13 @@
         <v>209732</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3260,13 @@
         <v>189959</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
@@ -3263,13 +3275,13 @@
         <v>141367</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>300</v>
@@ -3278,13 +3290,13 @@
         <v>331326</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,10 +3382,10 @@
         <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -3385,10 +3397,10 @@
         <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3415,13 @@
         <v>138010</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>81</v>
@@ -3418,13 +3430,13 @@
         <v>89012</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>219</v>
@@ -3436,10 +3448,10 @@
         <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3519,13 @@
         <v>163676</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -3522,13 +3534,13 @@
         <v>71046</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>210</v>
@@ -3537,13 +3549,13 @@
         <v>234722</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3570,13 @@
         <v>263943</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>192</v>
@@ -3573,13 +3585,13 @@
         <v>205223</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>436</v>
@@ -3588,13 +3600,13 @@
         <v>469165</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3674,13 @@
         <v>58143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -3677,13 +3689,13 @@
         <v>30203</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -3692,13 +3704,13 @@
         <v>88346</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3725,13 @@
         <v>83679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -3728,13 +3740,13 @@
         <v>62088</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -3743,13 +3755,13 @@
         <v>145768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3829,13 @@
         <v>61887</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -3832,13 +3844,13 @@
         <v>25402</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -3847,13 +3859,13 @@
         <v>87289</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3880,13 @@
         <v>103986</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -3883,13 +3895,13 @@
         <v>60701</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>160</v>
@@ -3898,13 +3910,13 @@
         <v>164687</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3984,13 @@
         <v>157340</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>72</v>
@@ -3987,13 +3999,13 @@
         <v>77914</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>223</v>
@@ -4002,13 +4014,13 @@
         <v>235254</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,16 +4032,16 @@
         <v>257</v>
       </c>
       <c r="D23" s="7">
-        <v>279207</v>
+        <v>279206</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>181</v>
@@ -4038,13 +4050,13 @@
         <v>199234</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>438</v>
@@ -4053,13 +4065,13 @@
         <v>478441</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,7 +4083,7 @@
         <v>408</v>
       </c>
       <c r="D24" s="7">
-        <v>436547</v>
+        <v>436546</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4115,7 +4127,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4127,13 +4139,13 @@
         <v>121456</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -4142,13 +4154,13 @@
         <v>70569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>179</v>
@@ -4157,13 +4169,13 @@
         <v>192025</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4190,13 @@
         <v>291039</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>181</v>
@@ -4193,13 +4205,13 @@
         <v>199028</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>443</v>
@@ -4208,13 +4220,13 @@
         <v>490067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4294,13 @@
         <v>775491</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>344</v>
@@ -4297,13 +4309,13 @@
         <v>376424</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>1073</v>
@@ -4312,13 +4324,13 @@
         <v>1151915</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4345,13 @@
         <v>1349821</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>881</v>
@@ -4348,13 +4360,13 @@
         <v>956652</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>2131</v>
@@ -4363,13 +4375,13 @@
         <v>2306473</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,7 +4437,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q23_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R2-Provincia-trans_orig.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{477DBD99-DF2B-47B1-B046-3367E928A56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA35F75-84D6-48AF-9250-4D8C8FCA5069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{349254C7-00D7-4E8A-A36A-D433688D2133}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{32EA178E-52B8-4DCF-B564-6E46C0D6E568}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="323">
-  <si>
-    <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2007 (Tasa respuesta: 42,33%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="632">
+  <si>
+    <t>Población la edad de comienzo de consumo de tabaco en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -588,10 +590,61 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>Población la edad de comienzo de consumo de tabaco en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
   </si>
   <si>
     <t>42,45%</t>
@@ -690,58 +743,58 @@
     <t>73,73%</t>
   </si>
   <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>41,0%</t>
@@ -1006,6 +1059,882 @@
   </si>
   <si>
     <t>68,27%</t>
+  </si>
+  <si>
+    <t>Población la edad de comienzo de consumo de tabaco en 2016 (Tasa respuesta: 3,93%)</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>Población la edad de comienzo de consumo de tabaco en 2023 (Tasa respuesta: 34,37%)</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C99A717-73FF-45BB-BEB0-09326FB7631F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3992842B-741E-4CDF-B679-F32CF0F9135E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2778,7 +3707,7 @@
         <v>632</v>
       </c>
       <c r="D28" s="7">
-        <v>641679</v>
+        <v>641678</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
@@ -2880,7 +3809,7 @@
         <v>1754</v>
       </c>
       <c r="D30" s="7">
-        <v>1789652</v>
+        <v>1789651</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2948,7 +3877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C556A6-50D6-4BBB-A36B-68D65F1C419F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB412F3-FE77-4C81-A134-47C3C38E3877}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3066,43 +3995,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D4" s="7">
+        <v>85957</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="I4" s="7">
+        <v>43969</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="N4" s="7">
+        <v>129926</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,43 +4046,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="D5" s="7">
+        <v>117451</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="I5" s="7">
+        <v>84761</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="N5" s="7">
+        <v>202213</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,43 +4097,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>191</v>
+      </c>
+      <c r="D6" s="7">
+        <v>203408</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="I6" s="7">
+        <v>128730</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>300</v>
+      </c>
+      <c r="N6" s="7">
+        <v>332139</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +4156,13 @@
         <v>140136</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -3224,13 +4171,13 @@
         <v>69596</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>196</v>
@@ -3239,13 +4186,13 @@
         <v>209732</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +4207,13 @@
         <v>189959</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
@@ -3275,13 +4222,13 @@
         <v>141367</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>300</v>
@@ -3290,10 +4237,10 @@
         <v>331326</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>180</v>
@@ -3364,13 +4311,13 @@
         <v>72852</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -3379,13 +4326,13 @@
         <v>31694</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -3397,10 +4344,10 @@
         <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +4362,13 @@
         <v>138010</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>81</v>
@@ -3430,13 +4377,13 @@
         <v>89012</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>219</v>
@@ -3448,10 +4395,10 @@
         <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,49 +4460,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="D13" s="7">
-        <v>163676</v>
+        <v>77719</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>71046</v>
+        <v>27077</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="N13" s="7">
-        <v>234722</v>
+        <v>104796</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,49 +4511,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>135</v>
+      </c>
+      <c r="D14" s="7">
+        <v>146491</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D14" s="7">
-        <v>263943</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="I14" s="7">
-        <v>205223</v>
+        <v>120461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>436</v>
+        <v>254</v>
       </c>
       <c r="N14" s="7">
-        <v>469165</v>
+        <v>266953</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,10 +4562,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>394</v>
+        <v>203</v>
       </c>
       <c r="D15" s="7">
-        <v>427619</v>
+        <v>224210</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3630,10 +4577,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="I15" s="7">
-        <v>276269</v>
+        <v>147538</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3645,10 +4592,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>646</v>
+        <v>346</v>
       </c>
       <c r="N15" s="7">
-        <v>703887</v>
+        <v>371749</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3674,13 +4621,13 @@
         <v>58143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -3689,13 +4636,13 @@
         <v>30203</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -3704,13 +4651,13 @@
         <v>88346</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +4672,13 @@
         <v>83679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -3740,13 +4687,13 @@
         <v>62088</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -3755,10 +4702,10 @@
         <v>145768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>86</v>
@@ -3829,13 +4776,13 @@
         <v>61887</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -3844,13 +4791,13 @@
         <v>25402</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -3859,13 +4806,13 @@
         <v>87289</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +4827,13 @@
         <v>103986</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -3895,13 +4842,13 @@
         <v>60701</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>160</v>
@@ -3910,13 +4857,13 @@
         <v>164687</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +4931,13 @@
         <v>157340</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>72</v>
@@ -3999,13 +4946,13 @@
         <v>77914</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>223</v>
@@ -4014,13 +4961,13 @@
         <v>235254</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,16 +4979,16 @@
         <v>257</v>
       </c>
       <c r="D23" s="7">
-        <v>279206</v>
+        <v>279207</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>181</v>
@@ -4050,13 +4997,13 @@
         <v>199234</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>438</v>
@@ -4065,13 +5012,13 @@
         <v>478441</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,7 +5030,7 @@
         <v>408</v>
       </c>
       <c r="D24" s="7">
-        <v>436546</v>
+        <v>436547</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4139,13 +5086,13 @@
         <v>121456</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -4154,13 +5101,13 @@
         <v>70569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>179</v>
@@ -4169,13 +5116,13 @@
         <v>192025</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +5137,13 @@
         <v>291039</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>181</v>
@@ -4205,13 +5152,13 @@
         <v>199028</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>443</v>
@@ -4220,13 +5167,13 @@
         <v>490067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +5241,13 @@
         <v>775491</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>344</v>
@@ -4309,13 +5256,13 @@
         <v>376424</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>1073</v>
@@ -4324,13 +5271,13 @@
         <v>1151915</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +5292,13 @@
         <v>1349821</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>881</v>
@@ -4360,13 +5307,13 @@
         <v>956652</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>2131</v>
@@ -4375,13 +5322,13 @@
         <v>2306473</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,6 +5371,3068 @@
       </c>
       <c r="N30" s="7">
         <v>3458388</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F386FC-CCE1-4716-A328-997A303DA5E4}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>26667</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6324</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M4" s="7">
+        <v>29</v>
+      </c>
+      <c r="N4" s="7">
+        <v>32991</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18563</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H5" s="7">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7176</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M5" s="7">
+        <v>24</v>
+      </c>
+      <c r="N5" s="7">
+        <v>25739</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45230</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7">
+        <v>13500</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>53</v>
+      </c>
+      <c r="N6" s="7">
+        <v>58730</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6003</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5939</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M7" s="7">
+        <v>12</v>
+      </c>
+      <c r="N7" s="7">
+        <v>11942</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8228</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>985</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="M8" s="7">
+        <v>9</v>
+      </c>
+      <c r="N8" s="7">
+        <v>9213</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
+        <v>14231</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7">
+        <v>6924</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>21</v>
+      </c>
+      <c r="N9" s="7">
+        <v>21155</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4573</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1017</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M10" s="7">
+        <v>6</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5591</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7115</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1787</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M11" s="7">
+        <v>9</v>
+      </c>
+      <c r="N11" s="7">
+        <v>8901</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11688</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2804</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>15</v>
+      </c>
+      <c r="N12" s="7">
+        <v>14492</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <v>15670</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>7835</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M13" s="7">
+        <v>22</v>
+      </c>
+      <c r="N13" s="7">
+        <v>23505</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7">
+        <v>23977</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6316</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="M14" s="7">
+        <v>30</v>
+      </c>
+      <c r="N14" s="7">
+        <v>30293</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7">
+        <v>39647</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>13</v>
+      </c>
+      <c r="I15" s="7">
+        <v>14151</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>52</v>
+      </c>
+      <c r="N15" s="7">
+        <v>53798</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2880</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>979</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3858</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1827</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>851</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2678</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4707</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1830</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>7</v>
+      </c>
+      <c r="N18" s="7">
+        <v>6536</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4935</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>921</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5856</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8542</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1838</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M20" s="7">
+        <v>11</v>
+      </c>
+      <c r="N20" s="7">
+        <v>10379</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7">
+        <v>13477</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2759</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>17</v>
+      </c>
+      <c r="N21" s="7">
+        <v>16235</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7">
+        <v>15070</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H22" s="7">
+        <v>7</v>
+      </c>
+      <c r="I22" s="7">
+        <v>6973</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M22" s="7">
+        <v>21</v>
+      </c>
+      <c r="N22" s="7">
+        <v>22043</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7">
+        <v>19599</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H23" s="7">
+        <v>15</v>
+      </c>
+      <c r="I23" s="7">
+        <v>15727</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="M23" s="7">
+        <v>32</v>
+      </c>
+      <c r="N23" s="7">
+        <v>35326</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7">
+        <v>34669</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>22</v>
+      </c>
+      <c r="I24" s="7">
+        <v>22700</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>53</v>
+      </c>
+      <c r="N24" s="7">
+        <v>57369</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7">
+        <v>24151</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2889</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="M25" s="7">
+        <v>26</v>
+      </c>
+      <c r="N25" s="7">
+        <v>27039</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7">
+        <v>10848</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4489</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="M26" s="7">
+        <v>14</v>
+      </c>
+      <c r="N26" s="7">
+        <v>15337</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>33</v>
+      </c>
+      <c r="D27" s="7">
+        <v>34999</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>7</v>
+      </c>
+      <c r="I27" s="7">
+        <v>7378</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>40</v>
+      </c>
+      <c r="N27" s="7">
+        <v>42376</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>94</v>
+      </c>
+      <c r="D28" s="7">
+        <v>99949</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H28" s="7">
+        <v>32</v>
+      </c>
+      <c r="I28" s="7">
+        <v>32877</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="M28" s="7">
+        <v>126</v>
+      </c>
+      <c r="N28" s="7">
+        <v>132825</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>93</v>
+      </c>
+      <c r="D29" s="7">
+        <v>98698</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H29" s="7">
+        <v>39</v>
+      </c>
+      <c r="I29" s="7">
+        <v>39167</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M29" s="7">
+        <v>132</v>
+      </c>
+      <c r="N29" s="7">
+        <v>137866</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>187</v>
+      </c>
+      <c r="D30" s="7">
+        <v>198647</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="7">
+        <v>71</v>
+      </c>
+      <c r="I30" s="7">
+        <v>72044</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="7">
+        <v>258</v>
+      </c>
+      <c r="N30" s="7">
+        <v>270691</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6064A106-B70C-4232-8A6B-DC2B810AC942}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>53</v>
+      </c>
+      <c r="D4" s="7">
+        <v>58532</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H4" s="7">
+        <v>28</v>
+      </c>
+      <c r="I4" s="7">
+        <v>16360</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="M4" s="7">
+        <v>81</v>
+      </c>
+      <c r="N4" s="7">
+        <v>74892</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>84</v>
+      </c>
+      <c r="D5" s="7">
+        <v>73362</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H5" s="7">
+        <v>112</v>
+      </c>
+      <c r="I5" s="7">
+        <v>60758</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="M5" s="7">
+        <v>196</v>
+      </c>
+      <c r="N5" s="7">
+        <v>134120</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>137</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131894</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>140</v>
+      </c>
+      <c r="I6" s="7">
+        <v>77118</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>277</v>
+      </c>
+      <c r="N6" s="7">
+        <v>209012</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>73</v>
+      </c>
+      <c r="D7" s="7">
+        <v>81638</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H7" s="7">
+        <v>58</v>
+      </c>
+      <c r="I7" s="7">
+        <v>43710</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M7" s="7">
+        <v>131</v>
+      </c>
+      <c r="N7" s="7">
+        <v>125348</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>125</v>
+      </c>
+      <c r="D8" s="7">
+        <v>163363</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="H8" s="7">
+        <v>158</v>
+      </c>
+      <c r="I8" s="7">
+        <v>120486</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="M8" s="7">
+        <v>283</v>
+      </c>
+      <c r="N8" s="7">
+        <v>283849</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>198</v>
+      </c>
+      <c r="D9" s="7">
+        <v>245001</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>216</v>
+      </c>
+      <c r="I9" s="7">
+        <v>164196</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>414</v>
+      </c>
+      <c r="N9" s="7">
+        <v>409197</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>87</v>
+      </c>
+      <c r="D10" s="7">
+        <v>69658</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="H10" s="7">
+        <v>40</v>
+      </c>
+      <c r="I10" s="7">
+        <v>26258</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="M10" s="7">
+        <v>127</v>
+      </c>
+      <c r="N10" s="7">
+        <v>95916</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>85</v>
+      </c>
+      <c r="D11" s="7">
+        <v>69556</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="H11" s="7">
+        <v>122</v>
+      </c>
+      <c r="I11" s="7">
+        <v>83833</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="M11" s="7">
+        <v>207</v>
+      </c>
+      <c r="N11" s="7">
+        <v>153389</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>172</v>
+      </c>
+      <c r="D12" s="7">
+        <v>139214</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>162</v>
+      </c>
+      <c r="I12" s="7">
+        <v>110091</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>334</v>
+      </c>
+      <c r="N12" s="7">
+        <v>249305</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>49</v>
+      </c>
+      <c r="D13" s="7">
+        <v>39110</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="H13" s="7">
+        <v>38</v>
+      </c>
+      <c r="I13" s="7">
+        <v>28906</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="M13" s="7">
+        <v>87</v>
+      </c>
+      <c r="N13" s="7">
+        <v>68016</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>121</v>
+      </c>
+      <c r="D14" s="7">
+        <v>128826</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="H14" s="7">
+        <v>143</v>
+      </c>
+      <c r="I14" s="7">
+        <v>99477</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="M14" s="7">
+        <v>264</v>
+      </c>
+      <c r="N14" s="7">
+        <v>228302</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>170</v>
+      </c>
+      <c r="D15" s="7">
+        <v>167936</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>181</v>
+      </c>
+      <c r="I15" s="7">
+        <v>128383</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>351</v>
+      </c>
+      <c r="N15" s="7">
+        <v>296318</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11796</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H16" s="7">
+        <v>21</v>
+      </c>
+      <c r="I16" s="7">
+        <v>9872</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="M16" s="7">
+        <v>43</v>
+      </c>
+      <c r="N16" s="7">
+        <v>21668</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>61</v>
+      </c>
+      <c r="D17" s="7">
+        <v>36782</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="H17" s="7">
+        <v>68</v>
+      </c>
+      <c r="I17" s="7">
+        <v>28310</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="M17" s="7">
+        <v>129</v>
+      </c>
+      <c r="N17" s="7">
+        <v>65092</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>83</v>
+      </c>
+      <c r="D18" s="7">
+        <v>48578</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>89</v>
+      </c>
+      <c r="I18" s="7">
+        <v>38182</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>172</v>
+      </c>
+      <c r="N18" s="7">
+        <v>86760</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>73</v>
+      </c>
+      <c r="D19" s="7">
+        <v>50480</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="7">
+        <v>28</v>
+      </c>
+      <c r="I19" s="7">
+        <v>18382</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M19" s="7">
+        <v>101</v>
+      </c>
+      <c r="N19" s="7">
+        <v>68862</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>99</v>
+      </c>
+      <c r="D20" s="7">
+        <v>69958</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="H20" s="7">
+        <v>69</v>
+      </c>
+      <c r="I20" s="7">
+        <v>40720</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="M20" s="7">
+        <v>168</v>
+      </c>
+      <c r="N20" s="7">
+        <v>110678</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>172</v>
+      </c>
+      <c r="D21" s="7">
+        <v>120438</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>97</v>
+      </c>
+      <c r="I21" s="7">
+        <v>59102</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>269</v>
+      </c>
+      <c r="N21" s="7">
+        <v>179540</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>109</v>
+      </c>
+      <c r="D22" s="7">
+        <v>108590</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="H22" s="7">
+        <v>87</v>
+      </c>
+      <c r="I22" s="7">
+        <v>69129</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="M22" s="7">
+        <v>196</v>
+      </c>
+      <c r="N22" s="7">
+        <v>177719</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>186</v>
+      </c>
+      <c r="D23" s="7">
+        <v>183090</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="H23" s="7">
+        <v>267</v>
+      </c>
+      <c r="I23" s="7">
+        <v>175868</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="M23" s="7">
+        <v>453</v>
+      </c>
+      <c r="N23" s="7">
+        <v>358958</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>295</v>
+      </c>
+      <c r="D24" s="7">
+        <v>291680</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>354</v>
+      </c>
+      <c r="I24" s="7">
+        <v>244997</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>649</v>
+      </c>
+      <c r="N24" s="7">
+        <v>536677</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>79</v>
+      </c>
+      <c r="D25" s="7">
+        <v>68164</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H25" s="7">
+        <v>32</v>
+      </c>
+      <c r="I25" s="7">
+        <v>22442</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="M25" s="7">
+        <v>111</v>
+      </c>
+      <c r="N25" s="7">
+        <v>90607</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>247</v>
+      </c>
+      <c r="D26" s="7">
+        <v>456715</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H26" s="7">
+        <v>181</v>
+      </c>
+      <c r="I26" s="7">
+        <v>129200</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="M26" s="7">
+        <v>428</v>
+      </c>
+      <c r="N26" s="7">
+        <v>585915</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>326</v>
+      </c>
+      <c r="D27" s="7">
+        <v>524879</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>213</v>
+      </c>
+      <c r="I27" s="7">
+        <v>151642</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>539</v>
+      </c>
+      <c r="N27" s="7">
+        <v>676522</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>545</v>
+      </c>
+      <c r="D28" s="7">
+        <v>487969</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="7">
+        <v>332</v>
+      </c>
+      <c r="I28" s="7">
+        <v>235060</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="M28" s="7">
+        <v>877</v>
+      </c>
+      <c r="N28" s="7">
+        <v>723029</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1008</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1181651</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1120</v>
+      </c>
+      <c r="I29" s="7">
+        <v>738651</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="M29" s="7">
+        <v>2128</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1920302</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1553</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1669620</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1452</v>
+      </c>
+      <c r="I30" s="7">
+        <v>973711</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="7">
+        <v>3005</v>
+      </c>
+      <c r="N30" s="7">
+        <v>2643331</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
